--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="484">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1503,279 +1503,6 @@
   </si>
   <si>
     <t>Profit Variation (Standard)</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3965297024","dealId":"4009281368","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-04-07","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3965297024","dealId":"4009281368","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5208426211","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5200011534","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-05-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3965297024","dealId":"4009281368","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-04-07","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3965297024","dealId":"4009281368","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5208426213","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5208426214","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5208426215","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"5200011536","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3965297024","dealId":"4009281368","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-04-07","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3965297024","dealId":"4009281368","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5208426219","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5208426220","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5208426221","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"5200011538","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-05-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9068746324","dealId":"6313906524","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-05-16","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9068746324","dealId":"6313906524","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4708575403","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"4700011073","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-15","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9068746324","dealId":"6313906524","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-16","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9068746324","dealId":"6313906524","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4708575405","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4708575406","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4708575407","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4700011075","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-15","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9068746324","dealId":"6313906524","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-05-16","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9068746324","dealId":"6313906524","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4708575411","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4708575412","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4708575413","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4700011077","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-15","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7118588652","dealId":"3562657754","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-05-16","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7118588652","dealId":"3562657754","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"8488575649","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"8480011203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-15","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7118588652","dealId":"3562657754","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-16","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7118588652","dealId":"3562657754","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8488575651","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8488575652","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8488575653","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"8480011205","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-15","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7118588652","dealId":"3562657754","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-05-16","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7118588652","dealId":"3562657754","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8488575657","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8488575658","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8488575659","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"8480011207","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-15","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6548573071","dealId":"7689547599","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-05-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7689547599","modelId":"6548573071","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7780015838","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-05-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6548573071","dealId":"7689547599","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7788825466","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"7780015838","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-25","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7689547599","modelId":"6548573071","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7780015839","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-25","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7788825466","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6548573071","dealId":"7689547599","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7689547599","modelId":"6548573071","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7780015840","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-05-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6548573071","dealId":"7689547599","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7788825468","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7788825469","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7788825470","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7780015840","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-25","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7689547599","modelId":"6548573071","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7780015841","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-25","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7788825468","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7788825469","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7788825470","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6548573071","dealId":"7689547599","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-05-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7689547599","modelId":"6548573071","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7780015842","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-05-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6548573071","dealId":"7689547599","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7788825474","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7788825475","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7788825476","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7780015842","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-25","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7689547599","modelId":"6548573071","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7780015843","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-25","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7788825474","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7788825475","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7788825476","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4778507645","dealId":"3317035542","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3317035542","modelId":"4778507645","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2610013422","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4778507645","dealId":"3317035542","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"2618651238","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"2610013422","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-26","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3317035542","modelId":"4778507645","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2610013423","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-26","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"2618651238","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4778507645","dealId":"3317035542","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3317035542","modelId":"4778507645","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2610013424","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4778507645","dealId":"3317035542","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2618651240","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2618651241","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2618651242","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2610013424","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-26","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3317035542","modelId":"4778507645","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2610013425","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-26","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2618651240","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2618651241","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2618651242","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4778507645","dealId":"3317035542","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3317035542","modelId":"4778507645","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2610013426","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4778507645","dealId":"3317035542","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2618651246","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2618651247","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2618651248","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2610013426","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-26","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3317035542","modelId":"4778507645","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2610013427","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-26","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2618651246","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2618651247","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2618651248","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6710530091","dealId":"9320533432","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9320533432","modelId":"6710530091","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5680013449","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6710530091","dealId":"9320533432","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5688651287","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5680013449","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-26","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9320533432","modelId":"6710530091","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5680013450","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-26","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5688651287","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6710530091","dealId":"9320533432","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9320533432","modelId":"6710530091","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5680013451","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6710530091","dealId":"9320533432","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5688651289","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5688651290","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5688651291","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"5680013451","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-26","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9320533432","modelId":"6710530091","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5680013452","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-26","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5688651289","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5688651290","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5688651291","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6710530091","dealId":"9320533432","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-26","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9320533432","modelId":"6710530091","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5680013453","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6710530091","dealId":"9320533432","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5688651295","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5688651296","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5688651297","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"5680013453","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-26","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9320533432","modelId":"6710530091","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5680013454","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-26","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5688651295","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5688651296","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5688651297","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8831736778","dealId":"8154873396","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8154873396","modelId":"8831736778","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6090015606","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8831736778","dealId":"8154873396","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"6098602415","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"6090015606","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8154873396","modelId":"8831736778","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6090015607","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"6098602415","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8831736778","dealId":"8154873396","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8154873396","modelId":"8831736778","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6090015608","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8831736778","dealId":"8154873396","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6098602417","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6098602418","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6098602419","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"6090015608","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8154873396","modelId":"8831736778","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6090015609","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6098602417","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6098602418","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6098602419","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8831736778","dealId":"8154873396","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8154873396","modelId":"8831736778","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6090015610","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8831736778","dealId":"8154873396","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6098602423","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6098602424","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6098602425","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"6090015610","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8154873396","modelId":"8831736778","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6090015611","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6098602423","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6098602424","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6098602425","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5538606545","dealId":"1647603072","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1647603072","modelId":"5538606545","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7250015802","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5538606545","dealId":"1647603072","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7258602759","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"7250015802","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1647603072","modelId":"5538606545","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7250015803","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7258602759","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5538606545","dealId":"1647603072","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1647603072","modelId":"5538606545","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7250015804","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5538606545","dealId":"1647603072","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7258602761","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7258602762","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7258602763","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7250015804","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1647603072","modelId":"5538606545","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7250015805","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7258602761","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7258602762","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7258602763","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5538606545","dealId":"1647603072","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1647603072","modelId":"5538606545","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7250015806","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5538606545","dealId":"1647603072","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7258602767","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7258602768","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7258602769","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7250015806","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1647603072","modelId":"5538606545","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7250015807","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7258602767","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7258602768","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7258602769","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3066869792","dealId":"9564727248","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-29","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9564727248","modelId":"3066869792","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0650014139","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-29","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3066869792","dealId":"9564727248","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0658600179","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"0650014139","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-29","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9564727248","modelId":"3066869792","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0650014140","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-29","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0658600179","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3066869792","dealId":"9564727248","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-29","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9564727248","modelId":"3066869792","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0650014141","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-29","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3066869792","dealId":"9564727248","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0658600181","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0658600182","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0658600183","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0650014141","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-29","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9564727248","modelId":"3066869792","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0650014142","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-29","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0658600181","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0658600182","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0658600183","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3066869792","dealId":"9564727248","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-29","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9564727248","modelId":"3066869792","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0650014143","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-29","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3066869792","dealId":"9564727248","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0658600187","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0658600188","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0658600189","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0650014143","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-29","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9564727248","modelId":"3066869792","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0650014144","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-29","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0658600187","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0658600188","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0658600189","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3517801669","dealId":"8404395802","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-02","assignmentLevel":"Customer Price List"}]}}}</t>
@@ -2644,113 +2371,113 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3045,17 +2772,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="I218" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="N231" sqref="N231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="22.26953125" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.26953125" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3786,11 +3513,11 @@
       <c r="I16" s="14"/>
     </row>
     <row r="18" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
     </row>
     <row r="19" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
@@ -3840,24 +3567,24 @@
       <c r="E21" s="34"/>
     </row>
     <row r="23" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="167" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
       <c r="BM23" s="16"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="16"/>
@@ -6734,12 +6461,12 @@
       <c r="DM56" s="16"/>
     </row>
     <row r="58" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="169" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="168"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="171"/>
     </row>
     <row r="59" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
@@ -6775,12 +6502,12 @@
       </c>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="168"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="171"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6867,17 +6594,17 @@
       <c r="G66" s="31"/>
     </row>
     <row r="68" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="167"/>
-      <c r="I68" s="168"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="171"/>
     </row>
     <row r="69" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
@@ -6947,11 +6674,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="42" t="str">
         <f ca="1">TEXT(TODAY()-60,"MM-DD-YYYY")</f>
-        <v>03-03-2023</v>
+        <v>06-09-2023</v>
       </c>
       <c r="K70" s="42" t="str">
         <f ca="1">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>04-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6987,11 +6714,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="42" t="str">
         <f ca="1">TEXT(TODAY()-90,"MM-DD-YYYY")</f>
-        <v>02-01-2023</v>
+        <v>05-10-2023</v>
       </c>
       <c r="K71" s="42" t="str">
         <f ca="1">TEXT(TODAY()-61,"MM-DD-YYYY")</f>
-        <v>03-02-2023</v>
+        <v>06-08-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -7027,11 +6754,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="42" t="str">
         <f ca="1">TEXT(TODAY()-120,"MM-DD-YYYY")</f>
-        <v>01-02-2023</v>
+        <v>04-10-2023</v>
       </c>
       <c r="K72" s="42" t="str">
         <f ca="1">TEXT(TODAY()-91,"MM-DD-YYYY")</f>
-        <v>01-31-2023</v>
+        <v>05-09-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -7075,11 +6802,11 @@
       </c>
       <c r="J73" s="42" t="str">
         <f ca="1">TEXT(TODAY()-150,"MM-DD-YYYY")</f>
-        <v>12-03-2022</v>
+        <v>03-11-2023</v>
       </c>
       <c r="K73" s="42" t="str">
         <f ca="1">TEXT(TODAY()-121,"MM-DD-YYYY")</f>
-        <v>01-01-2023</v>
+        <v>04-09-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -7123,11 +6850,11 @@
       </c>
       <c r="J74" s="42" t="str">
         <f ca="1">TEXT(TODAY()-180,"MM-DD-YYYY")</f>
-        <v>11-03-2022</v>
+        <v>02-09-2023</v>
       </c>
       <c r="K74" s="42" t="str">
         <f ca="1">TEXT(TODAY()-151,"MM-DD-YYYY")</f>
-        <v>12-02-2022</v>
+        <v>03-10-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -7140,27 +6867,27 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="159" t="s">
+      <c r="A76" s="164" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="159"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="159"/>
-      <c r="E76" s="159"/>
-      <c r="F76" s="159"/>
-      <c r="G76" s="159"/>
-      <c r="H76" s="159"/>
-      <c r="I76" s="159"/>
-      <c r="J76" s="159"/>
-      <c r="K76" s="159"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="164"/>
+      <c r="F76" s="164"/>
+      <c r="G76" s="164"/>
+      <c r="H76" s="164"/>
+      <c r="I76" s="164"/>
+      <c r="J76" s="164"/>
+      <c r="K76" s="164"/>
     </row>
     <row r="78" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="160" t="s">
+      <c r="A78" s="165" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="160"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="43" t="s">
@@ -7288,33 +7015,33 @@
       <c r="S83" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="T83" s="174" t="s">
+      <c r="T83" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="U83" s="175"/>
-      <c r="V83" s="176"/>
-      <c r="W83" s="174" t="s">
+      <c r="U83" s="151"/>
+      <c r="V83" s="152"/>
+      <c r="W83" s="150" t="s">
         <v>298</v>
       </c>
-      <c r="X83" s="176"/>
+      <c r="X83" s="152"/>
       <c r="Y83" s="49"/>
-      <c r="Z83" s="171" t="s">
+      <c r="Z83" s="147" t="s">
         <v>299</v>
       </c>
-      <c r="AA83" s="172"/>
-      <c r="AB83" s="172"/>
-      <c r="AC83" s="172"/>
-      <c r="AD83" s="172"/>
-      <c r="AE83" s="172"/>
-      <c r="AF83" s="173"/>
-      <c r="AG83" s="171" t="s">
+      <c r="AA83" s="148"/>
+      <c r="AB83" s="148"/>
+      <c r="AC83" s="148"/>
+      <c r="AD83" s="148"/>
+      <c r="AE83" s="148"/>
+      <c r="AF83" s="149"/>
+      <c r="AG83" s="147" t="s">
         <v>300</v>
       </c>
-      <c r="AH83" s="172"/>
-      <c r="AI83" s="172"/>
-      <c r="AJ83" s="172"/>
-      <c r="AK83" s="172"/>
-      <c r="AL83" s="173"/>
+      <c r="AH83" s="148"/>
+      <c r="AI83" s="148"/>
+      <c r="AJ83" s="148"/>
+      <c r="AK83" s="148"/>
+      <c r="AL83" s="149"/>
       <c r="AM83" s="50"/>
       <c r="AN83" s="51"/>
       <c r="AO83" s="51"/>
@@ -7500,11 +7227,11 @@
       </c>
       <c r="G85" s="58" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="H85" s="58" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="I85" s="56">
         <v>12</v>
@@ -7751,7 +7478,7 @@
       </c>
       <c r="C89" s="34" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>153</v>
@@ -7761,7 +7488,7 @@
       </c>
       <c r="F89" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="G89" s="58" t="s">
         <v>327</v>
@@ -7813,7 +7540,7 @@
       </c>
       <c r="C90" s="34" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="D90" s="34" t="s">
         <v>153</v>
@@ -7823,7 +7550,7 @@
       </c>
       <c r="F90" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="G90" s="58" t="s">
         <v>327</v>
@@ -7882,26 +7609,26 @@
       <c r="M91" s="59"/>
     </row>
     <row r="92" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A92" s="161" t="s">
+      <c r="A92" s="156" t="s">
         <v>432</v>
       </c>
-      <c r="B92" s="162"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="162"/>
-      <c r="E92" s="162"/>
-      <c r="F92" s="162"/>
-      <c r="G92" s="162"/>
-      <c r="H92" s="162"/>
-      <c r="I92" s="162"/>
-      <c r="J92" s="162"/>
-      <c r="K92" s="162"/>
-      <c r="L92" s="162"/>
-      <c r="M92" s="162"/>
-      <c r="N92" s="162"/>
-      <c r="O92" s="162"/>
-      <c r="P92" s="162"/>
-      <c r="Q92" s="162"/>
-      <c r="R92" s="162"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="157"/>
+      <c r="D92" s="157"/>
+      <c r="E92" s="157"/>
+      <c r="F92" s="157"/>
+      <c r="G92" s="157"/>
+      <c r="H92" s="157"/>
+      <c r="I92" s="157"/>
+      <c r="J92" s="157"/>
+      <c r="K92" s="157"/>
+      <c r="L92" s="157"/>
+      <c r="M92" s="157"/>
+      <c r="N92" s="157"/>
+      <c r="O92" s="157"/>
+      <c r="P92" s="157"/>
+      <c r="Q92" s="157"/>
+      <c r="R92" s="157"/>
       <c r="S92" s="82"/>
       <c r="AE92" s="52"/>
       <c r="AF92" s="52"/>
@@ -10439,13 +10166,13 @@
       <c r="S177" s="104"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A179" s="177" t="s">
+      <c r="A179" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="B179" s="177"/>
-      <c r="C179" s="177"/>
-      <c r="D179" s="177"/>
-      <c r="E179" s="177"/>
+      <c r="B179" s="158"/>
+      <c r="C179" s="158"/>
+      <c r="D179" s="158"/>
+      <c r="E179" s="158"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="123" t="s">
@@ -10526,7 +10253,7 @@
       <c r="N183" s="140" t="s">
         <v>471</v>
       </c>
-      <c r="O183" s="142" t="s">
+      <c r="O183" s="176" t="s">
         <v>352</v>
       </c>
       <c r="P183" s="135" t="s">
@@ -10567,7 +10294,7 @@
       <c r="L184" s="141"/>
       <c r="M184" s="141"/>
       <c r="N184" s="141"/>
-      <c r="O184" s="143"/>
+      <c r="O184" s="177"/>
       <c r="P184" s="138" t="s">
         <v>353</v>
       </c>
@@ -10636,20 +10363,20 @@
       <c r="S185" s="139"/>
     </row>
     <row r="187" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="169" t="s">
+      <c r="A187" s="142" t="s">
         <v>359</v>
       </c>
-      <c r="B187" s="170"/>
-      <c r="C187" s="170"/>
-      <c r="D187" s="170"/>
-      <c r="E187" s="170"/>
-      <c r="F187" s="170"/>
-      <c r="G187" s="170"/>
-      <c r="H187" s="170"/>
-      <c r="I187" s="170"/>
-      <c r="J187" s="170"/>
-      <c r="K187" s="170"/>
-      <c r="L187" s="170"/>
+      <c r="B187" s="143"/>
+      <c r="C187" s="143"/>
+      <c r="D187" s="143"/>
+      <c r="E187" s="143"/>
+      <c r="F187" s="143"/>
+      <c r="G187" s="143"/>
+      <c r="H187" s="143"/>
+      <c r="I187" s="143"/>
+      <c r="J187" s="143"/>
+      <c r="K187" s="143"/>
+      <c r="L187" s="143"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="144" t="s">
@@ -10658,54 +10385,54 @@
       <c r="B188" s="144" t="s">
         <v>360</v>
       </c>
-      <c r="C188" s="147" t="s">
+      <c r="C188" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="D188" s="150" t="s">
+      <c r="D188" s="172" t="s">
         <v>362</v>
       </c>
-      <c r="E188" s="153" t="s">
+      <c r="E188" s="163" t="s">
         <v>347</v>
       </c>
-      <c r="F188" s="153"/>
-      <c r="G188" s="153"/>
-      <c r="H188" s="153"/>
-      <c r="I188" s="154" t="s">
+      <c r="F188" s="163"/>
+      <c r="G188" s="163"/>
+      <c r="H188" s="163"/>
+      <c r="I188" s="175" t="s">
         <v>363</v>
       </c>
-      <c r="J188" s="154"/>
-      <c r="K188" s="154"/>
-      <c r="L188" s="154"/>
+      <c r="J188" s="175"/>
+      <c r="K188" s="175"/>
+      <c r="L188" s="175"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="145"/>
       <c r="B189" s="145"/>
-      <c r="C189" s="148"/>
-      <c r="D189" s="151"/>
-      <c r="E189" s="155" t="s">
+      <c r="C189" s="154"/>
+      <c r="D189" s="173"/>
+      <c r="E189" s="159" t="s">
         <v>364</v>
       </c>
-      <c r="F189" s="156"/>
-      <c r="G189" s="157" t="s">
+      <c r="F189" s="160"/>
+      <c r="G189" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="H189" s="158"/>
-      <c r="I189" s="155" t="s">
+      <c r="H189" s="162"/>
+      <c r="I189" s="159" t="s">
         <v>364</v>
       </c>
-      <c r="J189" s="156"/>
-      <c r="K189" s="157" t="s">
+      <c r="J189" s="160"/>
+      <c r="K189" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="L189" s="158"/>
+      <c r="L189" s="162"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="146"/>
       <c r="B190" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="C190" s="149"/>
-      <c r="D190" s="152"/>
+      <c r="C190" s="155"/>
+      <c r="D190" s="174"/>
       <c r="E190" s="63" t="s">
         <v>365</v>
       </c>
@@ -10953,7 +10680,7 @@
       <c r="N197" s="140" t="s">
         <v>471</v>
       </c>
-      <c r="O197" s="142" t="s">
+      <c r="O197" s="176" t="s">
         <v>352</v>
       </c>
       <c r="P197" s="135" t="s">
@@ -10994,7 +10721,7 @@
       <c r="L198" s="141"/>
       <c r="M198" s="141"/>
       <c r="N198" s="141"/>
-      <c r="O198" s="143"/>
+      <c r="O198" s="177"/>
       <c r="P198" s="138" t="s">
         <v>353</v>
       </c>
@@ -11127,7 +10854,7 @@
       <c r="I203" s="71"/>
       <c r="J203" s="72">
         <f ca="1">TODAY()</f>
-        <v>45048</v>
+        <v>45146</v>
       </c>
       <c r="K203" s="72">
         <v>234</v>
@@ -11160,7 +10887,7 @@
     <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A207" s="73" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B207" s="74" t="s">
         <v>389</v>
@@ -11175,7 +10902,7 @@
     <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A208" s="73" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B208" s="74" t="s">
         <v>391</v>
@@ -11187,10 +10914,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="209" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A209" s="73" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B209" s="74" t="s">
         <v>446</v>
@@ -11202,10 +10929,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="210" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A210" s="73" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B210" s="74" t="s">
         <v>390</v>
@@ -11217,27 +10944,27 @@
         <v>388</v>
       </c>
     </row>
-    <row r="212" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A212" s="161" t="s">
+    <row r="212" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A212" s="156" t="s">
         <v>449</v>
       </c>
-      <c r="B212" s="162"/>
-      <c r="C212" s="162"/>
-      <c r="D212" s="162"/>
-      <c r="E212" s="162"/>
-      <c r="F212" s="162"/>
-      <c r="G212" s="162"/>
-      <c r="H212" s="162"/>
-      <c r="I212" s="162"/>
-      <c r="J212" s="162"/>
-      <c r="K212" s="162"/>
-      <c r="L212" s="162"/>
-      <c r="M212" s="162"/>
-      <c r="N212" s="162"/>
-      <c r="O212" s="162"/>
-      <c r="P212" s="162"/>
-      <c r="Q212" s="162"/>
-      <c r="R212" s="162"/>
+      <c r="B212" s="157"/>
+      <c r="C212" s="157"/>
+      <c r="D212" s="157"/>
+      <c r="E212" s="157"/>
+      <c r="F212" s="157"/>
+      <c r="G212" s="157"/>
+      <c r="H212" s="157"/>
+      <c r="I212" s="157"/>
+      <c r="J212" s="157"/>
+      <c r="K212" s="157"/>
+      <c r="L212" s="157"/>
+      <c r="M212" s="157"/>
+      <c r="N212" s="157"/>
+      <c r="O212" s="157"/>
+      <c r="P212" s="157"/>
+      <c r="Q212" s="157"/>
+      <c r="R212" s="157"/>
       <c r="S212" s="119"/>
       <c r="T212" s="119"/>
       <c r="U212" s="119"/>
@@ -11247,7 +10974,7 @@
       <c r="Y212" s="119"/>
       <c r="Z212" s="119"/>
     </row>
-    <row r="213" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A213" s="75" t="s">
         <v>393</v>
       </c>
@@ -11327,7 +11054,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="76" t="s">
         <v>194</v>
       </c>
@@ -11337,7 +11064,7 @@
       </c>
       <c r="D214" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E214" s="78"/>
       <c r="F214" s="79">
@@ -11386,13 +11113,13 @@
       </c>
       <c r="Z214" s="78"/>
       <c r="AU214" t="s">
-        <v>563</v>
+        <v>472</v>
       </c>
       <c r="AV214" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="215" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="215" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="76" t="s">
         <v>194</v>
       </c>
@@ -11402,7 +11129,7 @@
       </c>
       <c r="D215" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-06-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E215" s="81"/>
       <c r="F215" s="81">
@@ -11451,13 +11178,13 @@
       </c>
       <c r="Z215" s="81"/>
       <c r="AU215" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="AV215" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="217" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="217" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="76" t="s">
         <v>247</v>
       </c>
@@ -11469,7 +11196,7 @@
       </c>
       <c r="D217" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E217" s="78"/>
       <c r="F217" s="78" t="s">
@@ -11513,13 +11240,13 @@
       </c>
       <c r="Z217" s="78"/>
       <c r="AU217" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="AV217" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="218" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="76" t="s">
         <v>247</v>
       </c>
@@ -11531,7 +11258,7 @@
       </c>
       <c r="D218" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-06-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E218" s="81"/>
       <c r="F218" s="81" t="s">
@@ -11575,13 +11302,13 @@
       </c>
       <c r="Z218" s="81"/>
       <c r="AU218" t="s">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="AV218" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="220" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="76" t="s">
         <v>247</v>
       </c>
@@ -11593,7 +11320,7 @@
       </c>
       <c r="D220" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-05-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E220" s="78"/>
       <c r="F220" s="78" t="s">
@@ -11637,13 +11364,13 @@
       </c>
       <c r="Z220" s="78"/>
       <c r="AU220" t="s">
-        <v>571</v>
+        <v>480</v>
       </c>
       <c r="AV220" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="221" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="221" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="76" t="s">
         <v>247</v>
       </c>
@@ -11655,7 +11382,7 @@
       </c>
       <c r="D221" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-06-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E221" s="81"/>
       <c r="F221" s="81" t="s">
@@ -11699,13 +11426,13 @@
       </c>
       <c r="Z221" s="81"/>
       <c r="AU221" t="s">
-        <v>573</v>
+        <v>482</v>
       </c>
       <c r="AV221" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="223" spans="1:47" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="223" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A223" s="123" t="s">
         <v>370</v>
       </c>
@@ -11719,16 +11446,8 @@
       <c r="I223" s="124"/>
       <c r="J223" s="124"/>
       <c r="K223" s="46"/>
-      <c r="L223" s="46"/>
-      <c r="M223" s="46"/>
-      <c r="N223" s="46"/>
-      <c r="O223" s="46"/>
-      <c r="P223" s="46"/>
-      <c r="Q223" s="46"/>
-      <c r="R223" s="46"/>
-      <c r="S223" s="46"/>
-    </row>
-    <row r="224" spans="1:47" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A224" s="120"/>
       <c r="B224" s="121"/>
       <c r="C224" s="125" t="s">
@@ -11742,19 +11461,9 @@
       <c r="I224" s="125"/>
       <c r="J224" s="125"/>
       <c r="K224" s="125"/>
-      <c r="L224" s="125"/>
-      <c r="M224" s="125"/>
-      <c r="N224" s="125"/>
-      <c r="O224" s="134"/>
-      <c r="P224" s="135" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q224" s="136"/>
-      <c r="R224" s="136"/>
-      <c r="S224" s="136"/>
-      <c r="Z224" s="68"/>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R224" s="68"/>
+    </row>
+    <row r="225" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="126" t="s">
         <v>348</v>
       </c>
@@ -11776,26 +11485,8 @@
       <c r="K225" s="140" t="s">
         <v>468</v>
       </c>
-      <c r="L225" s="140" t="s">
-        <v>469</v>
-      </c>
-      <c r="M225" s="140" t="s">
-        <v>470</v>
-      </c>
-      <c r="N225" s="140" t="s">
-        <v>471</v>
-      </c>
-      <c r="O225" s="142" t="s">
-        <v>352</v>
-      </c>
-      <c r="P225" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q225" s="136"/>
-      <c r="R225" s="137"/>
-      <c r="S225" s="137"/>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="133"/>
       <c r="B226" s="133"/>
       <c r="C226" s="63" t="s">
@@ -11823,24 +11514,8 @@
         <v>356</v>
       </c>
       <c r="K226" s="141"/>
-      <c r="L226" s="141"/>
-      <c r="M226" s="141"/>
-      <c r="N226" s="141"/>
-      <c r="O226" s="143"/>
-      <c r="P226" s="138" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q226" s="138" t="s">
-        <v>354</v>
-      </c>
-      <c r="R226" s="138" t="s">
-        <v>355</v>
-      </c>
-      <c r="S226" s="138" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="56" t="s">
         <v>357</v>
       </c>
@@ -11881,25 +11556,15 @@
         <f>TEXT(286.1,"0.00")</f>
         <v>286.10</v>
       </c>
-      <c r="L227" s="30"/>
-      <c r="M227" s="30"/>
-      <c r="N227" s="30"/>
-      <c r="O227" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="P227" s="139"/>
-      <c r="Q227" s="139"/>
-      <c r="R227" s="139"/>
-      <c r="S227" s="139"/>
-    </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="45" t="s">
         <v>371</v>
       </c>
       <c r="B229" s="46"/>
       <c r="C229" s="46"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="43" t="s">
         <v>371</v>
       </c>
@@ -11937,7 +11602,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A231" s="70" t="s">
         <v>465</v>
       </c>
@@ -11959,7 +11624,7 @@
       <c r="I231" s="71"/>
       <c r="J231" s="72">
         <f ca="1">TODAY()</f>
-        <v>45048</v>
+        <v>45146</v>
       </c>
       <c r="K231" s="72">
         <v>234</v>
@@ -11968,7 +11633,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="123" t="s">
         <v>370</v>
       </c>
@@ -11982,16 +11647,8 @@
       <c r="I233" s="124"/>
       <c r="J233" s="124"/>
       <c r="K233" s="46"/>
-      <c r="L233" s="46"/>
-      <c r="M233" s="46"/>
-      <c r="N233" s="46"/>
-      <c r="O233" s="46"/>
-      <c r="P233" s="46"/>
-      <c r="Q233" s="46"/>
-      <c r="R233" s="46"/>
-      <c r="S233" s="46"/>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="120"/>
       <c r="B234" s="121"/>
       <c r="C234" s="125" t="s">
@@ -12005,19 +11662,9 @@
       <c r="I234" s="125"/>
       <c r="J234" s="125"/>
       <c r="K234" s="125"/>
-      <c r="L234" s="125"/>
-      <c r="M234" s="125"/>
-      <c r="N234" s="125"/>
-      <c r="O234" s="134"/>
-      <c r="P234" s="135" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q234" s="136"/>
-      <c r="R234" s="136"/>
-      <c r="S234" s="136"/>
-      <c r="Z234" s="68"/>
-    </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q234" s="68"/>
+    </row>
+    <row r="235" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="126" t="s">
         <v>348</v>
       </c>
@@ -12039,26 +11686,8 @@
       <c r="K235" s="140" t="s">
         <v>468</v>
       </c>
-      <c r="L235" s="140" t="s">
-        <v>469</v>
-      </c>
-      <c r="M235" s="140" t="s">
-        <v>470</v>
-      </c>
-      <c r="N235" s="140" t="s">
-        <v>471</v>
-      </c>
-      <c r="O235" s="142" t="s">
-        <v>352</v>
-      </c>
-      <c r="P235" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q235" s="136"/>
-      <c r="R235" s="137"/>
-      <c r="S235" s="137"/>
-    </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="133"/>
       <c r="B236" s="133"/>
       <c r="C236" s="63" t="s">
@@ -12086,24 +11715,8 @@
         <v>356</v>
       </c>
       <c r="K236" s="141"/>
-      <c r="L236" s="141"/>
-      <c r="M236" s="141"/>
-      <c r="N236" s="141"/>
-      <c r="O236" s="143"/>
-      <c r="P236" s="138" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q236" s="138" t="s">
-        <v>354</v>
-      </c>
-      <c r="R236" s="138" t="s">
-        <v>355</v>
-      </c>
-      <c r="S236" s="138" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="56" t="s">
         <v>357</v>
       </c>
@@ -12144,88 +11757,78 @@
         <f>TEXT(286.1,"0.00")</f>
         <v>286.10</v>
       </c>
-      <c r="L237" s="30"/>
-      <c r="M237" s="30"/>
-      <c r="N237" s="30"/>
-      <c r="O237" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="P237" s="139"/>
-      <c r="Q237" s="139"/>
-      <c r="R237" s="139"/>
-      <c r="S237" s="139"/>
-    </row>
-    <row r="239" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="169" t="s">
+    </row>
+    <row r="239" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="142" t="s">
         <v>359</v>
       </c>
-      <c r="B239" s="170"/>
-      <c r="C239" s="170"/>
-      <c r="D239" s="170"/>
-      <c r="E239" s="170"/>
-      <c r="F239" s="170"/>
-      <c r="G239" s="170"/>
-      <c r="H239" s="170"/>
-      <c r="I239" s="170"/>
-      <c r="J239" s="170"/>
-      <c r="K239" s="170"/>
-      <c r="L239" s="170"/>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B239" s="143"/>
+      <c r="C239" s="143"/>
+      <c r="D239" s="143"/>
+      <c r="E239" s="143"/>
+      <c r="F239" s="143"/>
+      <c r="G239" s="143"/>
+      <c r="H239" s="143"/>
+      <c r="I239" s="143"/>
+      <c r="J239" s="143"/>
+      <c r="K239" s="143"/>
+      <c r="L239" s="143"/>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="144" t="s">
         <v>131</v>
       </c>
       <c r="B240" s="144" t="s">
         <v>360</v>
       </c>
-      <c r="C240" s="147" t="s">
+      <c r="C240" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="D240" s="150" t="s">
+      <c r="D240" s="172" t="s">
         <v>362</v>
       </c>
-      <c r="E240" s="153" t="s">
+      <c r="E240" s="163" t="s">
         <v>347</v>
       </c>
-      <c r="F240" s="153"/>
-      <c r="G240" s="153"/>
-      <c r="H240" s="153"/>
-      <c r="I240" s="154" t="s">
+      <c r="F240" s="163"/>
+      <c r="G240" s="163"/>
+      <c r="H240" s="163"/>
+      <c r="I240" s="175" t="s">
         <v>363</v>
       </c>
-      <c r="J240" s="154"/>
-      <c r="K240" s="154"/>
-      <c r="L240" s="154"/>
+      <c r="J240" s="175"/>
+      <c r="K240" s="175"/>
+      <c r="L240" s="175"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="145"/>
       <c r="B241" s="145"/>
-      <c r="C241" s="148"/>
-      <c r="D241" s="151"/>
-      <c r="E241" s="155" t="s">
+      <c r="C241" s="154"/>
+      <c r="D241" s="173"/>
+      <c r="E241" s="159" t="s">
         <v>364</v>
       </c>
-      <c r="F241" s="156"/>
-      <c r="G241" s="157" t="s">
+      <c r="F241" s="160"/>
+      <c r="G241" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="H241" s="158"/>
-      <c r="I241" s="155" t="s">
+      <c r="H241" s="162"/>
+      <c r="I241" s="159" t="s">
         <v>364</v>
       </c>
-      <c r="J241" s="156"/>
-      <c r="K241" s="157" t="s">
+      <c r="J241" s="160"/>
+      <c r="K241" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="L241" s="158"/>
+      <c r="L241" s="162"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="146"/>
       <c r="B242" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="C242" s="149"/>
-      <c r="D242" s="152"/>
+      <c r="C242" s="155"/>
+      <c r="D242" s="174"/>
       <c r="E242" s="63" t="s">
         <v>365</v>
       </c>
@@ -12394,7 +11997,39 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="48">
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="N183:N184"/>
+    <mergeCell ref="O183:O184"/>
+    <mergeCell ref="L197:L198"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="N197:N198"/>
+    <mergeCell ref="O197:O198"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="E240:H240"/>
+    <mergeCell ref="I240:L240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="I241:J241"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A212:R212"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="I188:L188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:H189"/>
     <mergeCell ref="K235:K236"/>
     <mergeCell ref="A239:L239"/>
     <mergeCell ref="A240:A242"/>
@@ -12411,46 +12046,6 @@
     <mergeCell ref="I189:J189"/>
     <mergeCell ref="K189:L189"/>
     <mergeCell ref="E188:H188"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A212:R212"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="I188:L188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="E240:H240"/>
-    <mergeCell ref="I240:L240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="I241:J241"/>
-    <mergeCell ref="K241:L241"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="N183:N184"/>
-    <mergeCell ref="O183:O184"/>
-    <mergeCell ref="L197:L198"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="N197:N198"/>
-    <mergeCell ref="O197:O198"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="N225:N226"/>
-    <mergeCell ref="O225:O226"/>
-    <mergeCell ref="L235:L236"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="N235:N236"/>
-    <mergeCell ref="O235:O236"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C58 KSH115:KSH117 KIL115:KIL117 JYP115:JYP117 JOT115:JOT117 JEX115:JEX117 IVB115:IVB117 ILF115:ILF117 IBJ115:IBJ117 HRN115:HRN117 HHR115:HHR117 GXV115:GXV117 GNZ115:GNZ117 GED115:GED117 FUH115:FUH117 FKL115:FKL117 C119:C121 IX119:IX121 ST119:ST121 ACP119:ACP121 AML119:AML121 AWH119:AWH121 BGD119:BGD121 BPZ119:BPZ121 BZV119:BZV121 CJR119:CJR121 CTN119:CTN121 DDJ119:DDJ121 DNF119:DNF121 DXB119:DXB121 EGX119:EGX121 EQT119:EQT121 FAP119:FAP121 FKL119:FKL121 FUH119:FUH121 GED119:GED121 GNZ119:GNZ121 GXV119:GXV121 HHR119:HHR121 HRN119:HRN121 IBJ119:IBJ121 ILF119:ILF121 IVB119:IVB121 JEX119:JEX121 JOT119:JOT121 JYP119:JYP121 KIL119:KIL121 KSH119:KSH121 LCD119:LCD121 LLZ119:LLZ121 LVV119:LVV121 MFR119:MFR121 MPN119:MPN121 MZJ119:MZJ121 NJF119:NJF121 NTB119:NTB121 OCX119:OCX121 OMT119:OMT121 OWP119:OWP121 PGL119:PGL121 PQH119:PQH121 QAD119:QAD121 QJZ119:QJZ121 QTV119:QTV121 RDR119:RDR121 RNN119:RNN121 RXJ119:RXJ121 SHF119:SHF121 SRB119:SRB121 TAX119:TAX121 TKT119:TKT121 TUP119:TUP121 UEL119:UEL121 UOH119:UOH121 UYD119:UYD121 VHZ119:VHZ121 VRV119:VRV121 WBR119:WBR121 WLN119:WLN121 WVJ119:WVJ121 C111 IX111 ST111 ACP111 AML111 AWH111 BGD111 BPZ111 BZV111 CJR111 CTN111 DDJ111 DNF111 DXB111 EGX111 EQT111 FAP111 FKL111 FUH111 GED111 GNZ111 GXV111 HHR111 HRN111 IBJ111 ILF111 IVB111 JEX111 JOT111 JYP111 KIL111 KSH111 LCD111 LLZ111 LVV111 MFR111 MPN111 MZJ111 NJF111 NTB111 OCX111 OMT111 OWP111 PGL111 PQH111 QAD111 QJZ111 QTV111 RDR111 RNN111 RXJ111 SHF111 SRB111 TAX111 TKT111 TUP111 UEL111 UOH111 UYD111 VHZ111 VRV111 WBR111 WLN111 WVJ111 WVJ127:WVJ129 IX133:IX135 ST133:ST135 ACP133:ACP135 AML133:AML135 AWH133:AWH135 BGD133:BGD135 BPZ133:BPZ135 BZV133:BZV135 CJR133:CJR135 CTN133:CTN135 DDJ133:DDJ135 DNF133:DNF135 DXB133:DXB135 EGX133:EGX135 EQT133:EQT135 FAP133:FAP135 FKL133:FKL135 FUH133:FUH135 GED133:GED135 GNZ133:GNZ135 GXV133:GXV135 HHR133:HHR135 HRN133:HRN135 IBJ133:IBJ135 ILF133:ILF135 IVB133:IVB135 JEX133:JEX135 JOT133:JOT135 JYP133:JYP135 KIL133:KIL135 KSH133:KSH135 LCD133:LCD135 LLZ133:LLZ135 LVV133:LVV135 MFR133:MFR135 MPN133:MPN135 MZJ133:MZJ135 NJF133:NJF135 NTB133:NTB135 OCX133:OCX135 OMT133:OMT135 OWP133:OWP135 PGL133:PGL135 PQH133:PQH135 QAD133:QAD135 QJZ133:QJZ135 QTV133:QTV135 RDR133:RDR135 RNN133:RNN135 RXJ133:RXJ135 SHF133:SHF135 SRB133:SRB135 TAX133:TAX135 TKT133:TKT135 TUP133:TUP135 UEL133:UEL135 UOH133:UOH135 UYD133:UYD135 VHZ133:VHZ135 VRV133:VRV135 WBR133:WBR135 WLN133:WLN135 WVJ133:WVJ135 C137:C139 IX137:IX139 ST137:ST139 ACP137:ACP139 AML137:AML139 AWH137:AWH139 BGD137:BGD139 BPZ137:BPZ139 BZV137:BZV139 CJR137:CJR139 CTN137:CTN139 DDJ137:DDJ139 DNF137:DNF139 DXB137:DXB139 EGX137:EGX139 EQT137:EQT139 FAP137:FAP139 FKL137:FKL139 FUH137:FUH139 GED137:GED139 GNZ137:GNZ139 GXV137:GXV139 HHR137:HHR139 HRN137:HRN139 IBJ137:IBJ139 ILF137:ILF139 IVB137:IVB139 JEX137:JEX139 JOT137:JOT139 JYP137:JYP139 KIL137:KIL139 KSH137:KSH139 LCD137:LCD139 LLZ137:LLZ139 LVV137:LVV139 MFR137:MFR139 MPN137:MPN139 MZJ137:MZJ139 NJF137:NJF139 NTB137:NTB139 OCX137:OCX139 OMT137:OMT139 OWP137:OWP139 PGL137:PGL139 PQH137:PQH139 QAD137:QAD139 QJZ137:QJZ139 QTV137:QTV139 RDR137:RDR139 RNN137:RNN139 RXJ137:RXJ139 SHF137:SHF139 SRB137:SRB139 TAX137:TAX139 TKT137:TKT139 TUP137:TUP139 UEL137:UEL139 UOH137:UOH139 UYD137:UYD139 VHZ137:VHZ139 VRV137:VRV139 WBR137:WBR139 WLN137:WLN139 WVJ137:WVJ139 C141:C143 IX141:IX143 ST141:ST143 ACP141:ACP143 AML141:AML143 AWH141:AWH143 BGD141:BGD143 BPZ141:BPZ143 BZV141:BZV143 CJR141:CJR143 CTN141:CTN143 DDJ141:DDJ143 DNF141:DNF143 DXB141:DXB143 EGX141:EGX143 EQT141:EQT143 FAP141:FAP143 FKL141:FKL143 FUH141:FUH143 GED141:GED143 GNZ141:GNZ143 GXV141:GXV143 HHR141:HHR143 HRN141:HRN143 IBJ141:IBJ143 ILF141:ILF143 IVB141:IVB143 JEX141:JEX143 JOT141:JOT143 JYP141:JYP143 KIL141:KIL143 KSH141:KSH143 LCD141:LCD143 LLZ141:LLZ143 LVV141:LVV143 MFR141:MFR143 MPN141:MPN143 MZJ141:MZJ143 NJF141:NJF143 NTB141:NTB143 OCX141:OCX143 OMT141:OMT143 OWP141:OWP143 PGL141:PGL143 PQH141:PQH143 QAD141:QAD143 QJZ141:QJZ143 QTV141:QTV143 RDR141:RDR143 RNN141:RNN143 RXJ141:RXJ143 SHF141:SHF143 SRB141:SRB143 TAX141:TAX143 TKT141:TKT143 TUP141:TUP143 UEL141:UEL143 UOH141:UOH143 UYD141:UYD143 VHZ141:VHZ143 VRV141:VRV143 WBR141:WBR143 WLN141:WLN143 WVJ141:WVJ143 C147:C149 IX147:IX149 ST147:ST149 ACP147:ACP149 AML147:AML149 AWH147:AWH149 BGD147:BGD149 BPZ147:BPZ149 BZV147:BZV149 CJR147:CJR149 CTN147:CTN149 DDJ147:DDJ149 DNF147:DNF149 DXB147:DXB149 EGX147:EGX149 EQT147:EQT149 FAP147:FAP149 FKL147:FKL149 FUH147:FUH149 GED147:GED149 GNZ147:GNZ149 GXV147:GXV149 HHR147:HHR149 HRN147:HRN149 IBJ147:IBJ149 ILF147:ILF149 IVB147:IVB149 JEX147:JEX149 JOT147:JOT149 JYP147:JYP149 KIL147:KIL149 KSH147:KSH149 LCD147:LCD149 LLZ147:LLZ149 LVV147:LVV149 MFR147:MFR149 MPN147:MPN149 MZJ147:MZJ149 NJF147:NJF149 NTB147:NTB149 OCX147:OCX149 OMT147:OMT149 OWP147:OWP149 PGL147:PGL149 PQH147:PQH149 QAD147:QAD149 QJZ147:QJZ149 QTV147:QTV149 RDR147:RDR149 RNN147:RNN149 RXJ147:RXJ149 SHF147:SHF149 SRB147:SRB149 TAX147:TAX149 TKT147:TKT149 TUP147:TUP149 UEL147:UEL149 UOH147:UOH149 UYD147:UYD149 VHZ147:VHZ149 VRV147:VRV149 WBR147:WBR149 WLN147:WLN149 WVJ147:WVJ149 C167:C169 IX167:IX169 ST167:ST169 ACP167:ACP169 AML167:AML169 AWH167:AWH169 BGD167:BGD169 BPZ167:BPZ169 BZV167:BZV169 CJR167:CJR169 CTN167:CTN169 DDJ167:DDJ169 DNF167:DNF169 DXB167:DXB169 EGX167:EGX169 EQT167:EQT169 FAP167:FAP169 FKL167:FKL169 FUH167:FUH169 GED167:GED169 GNZ167:GNZ169 GXV167:GXV169 HHR167:HHR169 HRN167:HRN169 IBJ167:IBJ169 ILF167:ILF169 IVB167:IVB169 JEX167:JEX169 JOT167:JOT169 JYP167:JYP169 KIL167:KIL169 KSH167:KSH169 LCD167:LCD169 LLZ167:LLZ169 LVV167:LVV169 MFR167:MFR169 MPN167:MPN169 MZJ167:MZJ169 NJF167:NJF169 NTB167:NTB169 OCX167:OCX169 OMT167:OMT169 OWP167:OWP169 PGL167:PGL169 PQH167:PQH169 QAD167:QAD169 QJZ167:QJZ169 QTV167:QTV169 RDR167:RDR169 RNN167:RNN169 RXJ167:RXJ169 SHF167:SHF169 SRB167:SRB169 TAX167:TAX169 TKT167:TKT169 TUP167:TUP169 UEL167:UEL169 UOH167:UOH169 UYD167:UYD169 VHZ167:VHZ169 VRV167:VRV169 WBR167:WBR169 WLN167:WLN169 WVJ167:WVJ169 C171:C173 IX171:IX173 ST171:ST173 ACP171:ACP173 AML171:AML173 AWH171:AWH173 BGD171:BGD173 BPZ171:BPZ173 BZV171:BZV173 CJR171:CJR173 CTN171:CTN173 DDJ171:DDJ173 DNF171:DNF173 DXB171:DXB173 EGX171:EGX173 EQT171:EQT173 FAP171:FAP173 FKL171:FKL173 FUH171:FUH173 GED171:GED173 GNZ171:GNZ173 GXV171:GXV173 HHR171:HHR173 HRN171:HRN173 IBJ171:IBJ173 ILF171:ILF173 IVB171:IVB173 JEX171:JEX173 JOT171:JOT173 JYP171:JYP173 KIL171:KIL173 KSH171:KSH173 LCD171:LCD173 LLZ171:LLZ173 LVV171:LVV173 MFR171:MFR173 MPN171:MPN173 MZJ171:MZJ173 NJF171:NJF173 NTB171:NTB173 OCX171:OCX173 OMT171:OMT173 OWP171:OWP173 PGL171:PGL173 PQH171:PQH173 QAD171:QAD173 QJZ171:QJZ173 QTV171:QTV173 RDR171:RDR173 RNN171:RNN173 RXJ171:RXJ173 SHF171:SHF173 SRB171:SRB173 TAX171:TAX173 TKT171:TKT173 TUP171:TUP173 UEL171:UEL173 UOH171:UOH173 UYD171:UYD173 VHZ171:VHZ173 VRV171:VRV173 WBR171:WBR173 WLN171:WLN173 WVJ171:WVJ173 C151:C153 IX151:IX153 ST151:ST153 ACP151:ACP153 AML151:AML153 AWH151:AWH153 BGD151:BGD153 BPZ151:BPZ153 BZV151:BZV153 CJR151:CJR153 CTN151:CTN153 DDJ151:DDJ153 DNF151:DNF153 DXB151:DXB153 EGX151:EGX153 EQT151:EQT153 FAP151:FAP153 FKL151:FKL153 FUH151:FUH153 GED151:GED153 GNZ151:GNZ153 GXV151:GXV153 HHR151:HHR153 HRN151:HRN153 IBJ151:IBJ153 ILF151:ILF153 IVB151:IVB153 JEX151:JEX153 JOT151:JOT153 JYP151:JYP153 KIL151:KIL153 KSH151:KSH153 LCD151:LCD153 LLZ151:LLZ153 LVV151:LVV153 MFR151:MFR153 MPN151:MPN153 MZJ151:MZJ153 NJF151:NJF153 NTB151:NTB153 OCX151:OCX153 OMT151:OMT153 OWP151:OWP153 PGL151:PGL153 PQH151:PQH153 QAD151:QAD153 QJZ151:QJZ153 QTV151:QTV153 RDR151:RDR153 RNN151:RNN153 RXJ151:RXJ153 SHF151:SHF153 SRB151:SRB153 TAX151:TAX153 TKT151:TKT153 TUP151:TUP153 UEL151:UEL153 UOH151:UOH153 UYD151:UYD153 VHZ151:VHZ153 VRV151:VRV153 WBR151:WBR153 WLN151:WLN153 WVJ151:WVJ153 C155:C157 IX155:IX157 ST155:ST157 ACP155:ACP157 AML155:AML157 AWH155:AWH157 BGD155:BGD157 BPZ155:BPZ157 BZV155:BZV157 CJR155:CJR157 CTN155:CTN157 DDJ155:DDJ157 DNF155:DNF157 DXB155:DXB157 EGX155:EGX157 EQT155:EQT157 FAP155:FAP157 FKL155:FKL157 FUH155:FUH157 GED155:GED157 GNZ155:GNZ157 GXV155:GXV157 HHR155:HHR157 HRN155:HRN157 IBJ155:IBJ157 ILF155:ILF157 IVB155:IVB157 JEX155:JEX157 JOT155:JOT157 JYP155:JYP157 KIL155:KIL157 KSH155:KSH157 LCD155:LCD157 LLZ155:LLZ157 LVV155:LVV157 MFR155:MFR157 MPN155:MPN157 MZJ155:MZJ157 NJF155:NJF157 NTB155:NTB157 OCX155:OCX157 OMT155:OMT157 OWP155:OWP157 PGL155:PGL157 PQH155:PQH157 QAD155:QAD157 QJZ155:QJZ157 QTV155:QTV157 RDR155:RDR157 RNN155:RNN157 RXJ155:RXJ157 SHF155:SHF157 SRB155:SRB157 TAX155:TAX157 TKT155:TKT157 TUP155:TUP157 UEL155:UEL157 UOH155:UOH157 UYD155:UYD157 VHZ155:VHZ157 VRV155:VRV157 WBR155:WBR157 WLN155:WLN157 WVJ155:WVJ157 C159:C161 IX159:IX161 ST159:ST161 ACP159:ACP161 AML159:AML161 AWH159:AWH161 BGD159:BGD161 BPZ159:BPZ161 BZV159:BZV161 CJR159:CJR161 CTN159:CTN161 DDJ159:DDJ161 DNF159:DNF161 DXB159:DXB161 EGX159:EGX161 EQT159:EQT161 FAP159:FAP161 FKL159:FKL161 FUH159:FUH161 GED159:GED161 GNZ159:GNZ161 GXV159:GXV161 HHR159:HHR161 HRN159:HRN161 IBJ159:IBJ161 ILF159:ILF161 IVB159:IVB161 JEX159:JEX161 JOT159:JOT161 JYP159:JYP161 KIL159:KIL161 KSH159:KSH161 LCD159:LCD161 LLZ159:LLZ161 LVV159:LVV161 MFR159:MFR161 MPN159:MPN161 MZJ159:MZJ161 NJF159:NJF161 NTB159:NTB161 OCX159:OCX161 OMT159:OMT161 OWP159:OWP161 PGL159:PGL161 PQH159:PQH161 QAD159:QAD161 QJZ159:QJZ161 QTV159:QTV161 RDR159:RDR161 RNN159:RNN161 RXJ159:RXJ161 SHF159:SHF161 SRB159:SRB161 TAX159:TAX161 TKT159:TKT161 TUP159:TUP161 UEL159:UEL161 UOH159:UOH161 UYD159:UYD161 VHZ159:VHZ161 VRV159:VRV161 WBR159:WBR161 WLN159:WLN161 WVJ159:WVJ161 C163:C165 IX163:IX165 ST163:ST165 ACP163:ACP165 AML163:AML165 AWH163:AWH165 BGD163:BGD165 BPZ163:BPZ165 BZV163:BZV165 CJR163:CJR165 CTN163:CTN165 DDJ163:DDJ165 DNF163:DNF165 DXB163:DXB165 EGX163:EGX165 EQT163:EQT165 FAP163:FAP165 FKL163:FKL165 FUH163:FUH165 GED163:GED165 GNZ163:GNZ165 GXV163:GXV165 HHR163:HHR165 HRN163:HRN165 IBJ163:IBJ165 ILF163:ILF165 IVB163:IVB165 JEX163:JEX165 JOT163:JOT165 JYP163:JYP165 KIL163:KIL165 KSH163:KSH165 LCD163:LCD165 LLZ163:LLZ165 LVV163:LVV165 MFR163:MFR165 MPN163:MPN165 MZJ163:MZJ165 NJF163:NJF165 NTB163:NTB165 OCX163:OCX165 OMT163:OMT165 OWP163:OWP165 PGL163:PGL165 PQH163:PQH165 QAD163:QAD165 QJZ163:QJZ165 QTV163:QTV165 RDR163:RDR165 RNN163:RNN165 RXJ163:RXJ165 SHF163:SHF165 SRB163:SRB165 TAX163:TAX165 TKT163:TKT165 TUP163:TUP165 UEL163:UEL165 UOH163:UOH165 UYD163:UYD165 VHZ163:VHZ165 VRV163:VRV165 WBR163:WBR165 WLN163:WLN165 WVJ163:WVJ165 C145 IX145 ST145 ACP145 AML145 AWH145 BGD145 BPZ145 BZV145 CJR145 CTN145 DDJ145 DNF145 DXB145 EGX145 EQT145 FAP145 FKL145 FUH145 GED145 GNZ145 GXV145 HHR145 HRN145 IBJ145 ILF145 IVB145 JEX145 JOT145 JYP145 KIL145 KSH145 LCD145 LLZ145 LVV145 MFR145 MPN145 MZJ145 NJF145 NTB145 OCX145 OMT145 OWP145 PGL145 PQH145 QAD145 QJZ145 QTV145 RDR145 RNN145 RXJ145 SHF145 SRB145 TAX145 TKT145 TUP145 UEL145 UOH145 UYD145 VHZ145 VRV145 WBR145 WLN145 WVJ145 C131 IX131 ST131 ACP131 AML131 AWH131 BGD131 BPZ131 BZV131 CJR131 CTN131 DDJ131 DNF131 DXB131 EGX131 EQT131 FAP131 FKL131 FUH131 GED131 GNZ131 GXV131 HHR131 HRN131 IBJ131 ILF131 IVB131 JEX131 JOT131 JYP131 KIL131 KSH131 LCD131 LLZ131 LVV131 MFR131 MPN131 MZJ131 NJF131 NTB131 OCX131 OMT131 OWP131 PGL131 PQH131 QAD131 QJZ131 QTV131 RDR131 RNN131 RXJ131 SHF131 SRB131 TAX131 TKT131 TUP131 UEL131 UOH131 UYD131 VHZ131 VRV131 WBR131 WLN131 WVJ131 C123:C125 IX123:IX125 ST123:ST125 ACP123:ACP125 AML123:AML125 AWH123:AWH125 BGD123:BGD125 BPZ123:BPZ125 BZV123:BZV125 CJR123:CJR125 CTN123:CTN125 DDJ123:DDJ125 DNF123:DNF125 DXB123:DXB125 EGX123:EGX125 EQT123:EQT125 FAP123:FAP125 FKL123:FKL125 FUH123:FUH125 GED123:GED125 GNZ123:GNZ125 GXV123:GXV125 HHR123:HHR125 HRN123:HRN125 IBJ123:IBJ125 ILF123:ILF125 IVB123:IVB125 JEX123:JEX125 JOT123:JOT125 JYP123:JYP125 KIL123:KIL125 KSH123:KSH125 LCD123:LCD125 LLZ123:LLZ125 LVV123:LVV125 MFR123:MFR125 MPN123:MPN125 MZJ123:MZJ125 NJF123:NJF125 NTB123:NTB125 OCX123:OCX125 OMT123:OMT125 OWP123:OWP125 PGL123:PGL125 PQH123:PQH125 QAD123:QAD125 QJZ123:QJZ125 QTV123:QTV125 RDR123:RDR125 RNN123:RNN125 RXJ123:RXJ125 SHF123:SHF125 SRB123:SRB125 TAX123:TAX125 TKT123:TKT125 TUP123:TUP125 UEL123:UEL125 UOH123:UOH125 UYD123:UYD125 VHZ123:VHZ125 VRV123:VRV125 WBR123:WBR125 WLN123:WLN125 WVJ123:WVJ125 C127:C129 IX127:IX129 ST127:ST129 ACP127:ACP129 AML127:AML129 AWH127:AWH129 BGD127:BGD129 BPZ127:BPZ129 BZV127:BZV129 CJR127:CJR129 CTN127:CTN129 DDJ127:DDJ129 DNF127:DNF129 DXB127:DXB129 EGX127:EGX129 EQT127:EQT129 FAP127:FAP129 FKL127:FKL129 FUH127:FUH129 GED127:GED129 GNZ127:GNZ129 GXV127:GXV129 HHR127:HHR129 HRN127:HRN129 IBJ127:IBJ129 ILF127:ILF129 IVB127:IVB129 JEX127:JEX129 JOT127:JOT129 JYP127:JYP129 KIL127:KIL129 KSH127:KSH129 LCD127:LCD129 LLZ127:LLZ129 LVV127:LVV129 MFR127:MFR129 MPN127:MPN129 MZJ127:MZJ129 NJF127:NJF129 NTB127:NTB129 OCX127:OCX129 OMT127:OMT129 OWP127:OWP129 PGL127:PGL129 PQH127:PQH129 QAD127:QAD129 QJZ127:QJZ129 QTV127:QTV129 RDR127:RDR129 RNN127:RNN129 RXJ127:RXJ129 SHF127:SHF129 SRB127:SRB129 TAX127:TAX129 TKT127:TKT129 TUP127:TUP129 UEL127:UEL129 UOH127:UOH129 UYD127:UYD129 VHZ127:VHZ129 VRV127:VRV129 WBR127:WBR129 WLN127:WLN129 C133:C135 IX95:IX97 ST95:ST97 ACP95:ACP97 AML95:AML97 AWH95:AWH97 BGD95:BGD97 BPZ95:BPZ97 BZV95:BZV97 CJR95:CJR97 CTN95:CTN97 DDJ95:DDJ97 DNF95:DNF97 DXB95:DXB97 EGX95:EGX97 EQT95:EQT97 FAP95:FAP97 FKL95:FKL97 FUH95:FUH97 GED95:GED97 GNZ95:GNZ97 GXV95:GXV97 HHR95:HHR97 HRN95:HRN97 IBJ95:IBJ97 ILF95:ILF97 IVB95:IVB97 JEX95:JEX97 JOT95:JOT97 JYP95:JYP97 KIL95:KIL97 KSH95:KSH97 LCD95:LCD97 LLZ95:LLZ97 LVV95:LVV97 MFR95:MFR97 MPN95:MPN97 MZJ95:MZJ97 NJF95:NJF97 NTB95:NTB97 OCX95:OCX97 OMT95:OMT97 OWP95:OWP97 PGL95:PGL97 PQH95:PQH97 QAD95:QAD97 QJZ95:QJZ97 QTV95:QTV97 RDR95:RDR97 RNN95:RNN97 RXJ95:RXJ97 SHF95:SHF97 SRB95:SRB97 TAX95:TAX97 TKT95:TKT97 TUP95:TUP97 UEL95:UEL97 UOH95:UOH97 UYD95:UYD97 VHZ95:VHZ97 VRV95:VRV97 WBR95:WBR97 WLN95:WLN97 WVJ95:WVJ97 C99:C101 IX99:IX101 ST99:ST101 ACP99:ACP101 AML99:AML101 AWH99:AWH101 BGD99:BGD101 BPZ99:BPZ101 BZV99:BZV101 CJR99:CJR101 CTN99:CTN101 DDJ99:DDJ101 DNF99:DNF101 DXB99:DXB101 EGX99:EGX101 EQT99:EQT101 FAP99:FAP101 FKL99:FKL101 FUH99:FUH101 GED99:GED101 GNZ99:GNZ101 GXV99:GXV101 HHR99:HHR101 HRN99:HRN101 IBJ99:IBJ101 ILF99:ILF101 IVB99:IVB101 JEX99:JEX101 JOT99:JOT101 JYP99:JYP101 KIL99:KIL101 KSH99:KSH101 LCD99:LCD101 LLZ99:LLZ101 LVV99:LVV101 MFR99:MFR101 MPN99:MPN101 MZJ99:MZJ101 NJF99:NJF101 NTB99:NTB101 OCX99:OCX101 OMT99:OMT101 OWP99:OWP101 PGL99:PGL101 PQH99:PQH101 QAD99:QAD101 QJZ99:QJZ101 QTV99:QTV101 RDR99:RDR101 RNN99:RNN101 RXJ99:RXJ101 SHF99:SHF101 SRB99:SRB101 TAX99:TAX101 TKT99:TKT101 TUP99:TUP101 UEL99:UEL101 UOH99:UOH101 UYD99:UYD101 VHZ99:VHZ101 VRV99:VRV101 WBR99:WBR101 WLN99:WLN101 WVJ99:WVJ101 C103:C105 IX103:IX105 ST103:ST105 ACP103:ACP105 AML103:AML105 AWH103:AWH105 BGD103:BGD105 BPZ103:BPZ105 BZV103:BZV105 CJR103:CJR105 CTN103:CTN105 DDJ103:DDJ105 DNF103:DNF105 DXB103:DXB105 EGX103:EGX105 EQT103:EQT105 FAP103:FAP105 FKL103:FKL105 FUH103:FUH105 GED103:GED105 GNZ103:GNZ105 GXV103:GXV105 HHR103:HHR105 HRN103:HRN105 IBJ103:IBJ105 ILF103:ILF105 IVB103:IVB105 JEX103:JEX105 JOT103:JOT105 JYP103:JYP105 KIL103:KIL105 KSH103:KSH105 LCD103:LCD105 LLZ103:LLZ105 LVV103:LVV105 MFR103:MFR105 MPN103:MPN105 MZJ103:MZJ105 NJF103:NJF105 NTB103:NTB105 OCX103:OCX105 OMT103:OMT105 OWP103:OWP105 PGL103:PGL105 PQH103:PQH105 QAD103:QAD105 QJZ103:QJZ105 QTV103:QTV105 RDR103:RDR105 RNN103:RNN105 RXJ103:RXJ105 SHF103:SHF105 SRB103:SRB105 TAX103:TAX105 TKT103:TKT105 TUP103:TUP105 UEL103:UEL105 UOH103:UOH105 UYD103:UYD105 VHZ103:VHZ105 VRV103:VRV105 WBR103:WBR105 WLN103:WLN105 WVJ103:WVJ105 LCD115:LCD117 C107:C109 IX107:IX109 ST107:ST109 ACP107:ACP109 AML107:AML109 AWH107:AWH109 BGD107:BGD109 BPZ107:BPZ109 BZV107:BZV109 CJR107:CJR109 CTN107:CTN109 DDJ107:DDJ109 DNF107:DNF109 DXB107:DXB109 EGX107:EGX109 EQT107:EQT109 FAP107:FAP109 FKL107:FKL109 FUH107:FUH109 GED107:GED109 GNZ107:GNZ109 GXV107:GXV109 HHR107:HHR109 HRN107:HRN109 IBJ107:IBJ109 ILF107:ILF109 IVB107:IVB109 JEX107:JEX109 JOT107:JOT109 JYP107:JYP109 KIL107:KIL109 KSH107:KSH109 LCD107:LCD109 LLZ107:LLZ109 LVV107:LVV109 MFR107:MFR109 MPN107:MPN109 MZJ107:MZJ109 NJF107:NJF109 NTB107:NTB109 OCX107:OCX109 OMT107:OMT109 OWP107:OWP109 PGL107:PGL109 PQH107:PQH109 QAD107:QAD109 QJZ107:QJZ109 QTV107:QTV109 RDR107:RDR109 RNN107:RNN109 RXJ107:RXJ109 SHF107:SHF109 SRB107:SRB109 TAX107:TAX109 TKT107:TKT109 TUP107:TUP109 UEL107:UEL109 UOH107:UOH109 UYD107:UYD109 VHZ107:VHZ109 VRV107:VRV109 WBR107:WBR109 WLN107:WLN109 WVJ107:WVJ109 FAP115:FAP117 EQT115:EQT117 EGX115:EGX117 DXB115:DXB117 DNF115:DNF117 DDJ115:DDJ117 CTN115:CTN117 CJR115:CJR117 BZV115:BZV117 BPZ115:BPZ117 BGD115:BGD117 AWH115:AWH117 AML115:AML117 ACP115:ACP117 ST115:ST117 IX115:IX117 C115:C117 WVJ115:WVJ117 WLN115:WLN117 WBR115:WBR117 VRV115:VRV117 VHZ115:VHZ117 UYD115:UYD117 UOH115:UOH117 UEL115:UEL117 TUP115:TUP117 TKT115:TKT117 TAX115:TAX117 SRB115:SRB117 SHF115:SHF117 RXJ115:RXJ117 RNN115:RNN117 RDR115:RDR117 QTV115:QTV117 QJZ115:QJZ117 QAD115:QAD117 PQH115:PQH117 PGL115:PGL117 OWP115:OWP117 OMT115:OMT117 OCX115:OCX117 NTB115:NTB117 NJF115:NJF117 MZJ115:MZJ117 MPN115:MPN117 MFR115:MFR117 LVV115:LVV117 LLZ115:LLZ117 LLZ113 LVV113 MFR113 MPN113 MZJ113 NJF113 NTB113 OCX113 OMT113 OWP113 PGL113 PQH113 QAD113 QJZ113 QTV113 RDR113 RNN113 RXJ113 SHF113 SRB113 TAX113 TKT113 TUP113 UEL113 UOH113 UYD113 VHZ113 VRV113 WBR113 WLN113 WVJ113 C113 IX113 ST113 ACP113 AML113 AWH113 BGD113 BPZ113 BZV113 CJR113 CTN113 DDJ113 DNF113 DXB113 EGX113 EQT113 FAP113 FKL113 FUH113 GED113 GNZ113 GXV113 HHR113 HRN113 IBJ113 ILF113 IVB113 JEX113 JOT113 JYP113 KIL113 KSH113 LCD113 C95:C97 WBR175:WBR177 VRV175:VRV177 VHZ175:VHZ177 UYD175:UYD177 UOH175:UOH177 UEL175:UEL177 TUP175:TUP177 TKT175:TKT177 TAX175:TAX177 SRB175:SRB177 SHF175:SHF177 RXJ175:RXJ177 RNN175:RNN177 RDR175:RDR177 QTV175:QTV177 QJZ175:QJZ177 QAD175:QAD177 PQH175:PQH177 PGL175:PGL177 OWP175:OWP177 OMT175:OMT177 OCX175:OCX177 NTB175:NTB177 NJF175:NJF177 MZJ175:MZJ177 MPN175:MPN177 MFR175:MFR177 LVV175:LVV177 LLZ175:LLZ177 LCD175:LCD177 KSH175:KSH177 KIL175:KIL177 JYP175:JYP177 JOT175:JOT177 JEX175:JEX177 IVB175:IVB177 ILF175:ILF177 IBJ175:IBJ177 HRN175:HRN177 HHR175:HHR177 GXV175:GXV177 GNZ175:GNZ177 GED175:GED177 FUH175:FUH177 FKL175:FKL177 FAP175:FAP177 EQT175:EQT177 EGX175:EGX177 DXB175:DXB177 DNF175:DNF177 DDJ175:DDJ177 CTN175:CTN177 CJR175:CJR177 BZV175:BZV177 BPZ175:BPZ177 BGD175:BGD177 AWH175:AWH177 AML175:AML177 ACP175:ACP177 ST175:ST177 IX175:IX177 C175:C177 WVJ175:WVJ177 WLN175:WLN177 MFR220:MFR221 LVV220:LVV221 LLZ220:LLZ221 KSH220:KSH221 KIL220:KIL221 JYP220:JYP221 JOT220:JOT221 JEX220:JEX221 IVB220:IVB221 ILF220:ILF221 IBJ220:IBJ221 HRN220:HRN221 HHR220:HHR221 GXV220:GXV221 GNZ220:GNZ221 GED220:GED221 FUH220:FUH221 FKL220:FKL221 LCD220:LCD221 FAP220:FAP221 EQT220:EQT221 EGX220:EGX221 DXB220:DXB221 DNF220:DNF221 DDJ220:DDJ221 CTN220:CTN221 CJR220:CJR221 BZV220:BZV221 BPZ220:BPZ221 BGD220:BGD221 AWH220:AWH221 AML220:AML221 ACP220:ACP221 ST220:ST221 IX220:IX221 WVJ220:WVJ221 WLN220:WLN221 WBR220:WBR221 VRV220:VRV221 VHZ220:VHZ221 UYD220:UYD221 UOH220:UOH221 UEL220:UEL221 TUP220:TUP221 TKT220:TKT221 TAX220:TAX221 SRB220:SRB221 SHF220:SHF221 RXJ220:RXJ221 RNN220:RNN221 RDR220:RDR221 QTV220:QTV221 QJZ220:QJZ221 QAD220:QAD221 PQH220:PQH221 PGL220:PGL221 OWP220:OWP221 OMT220:OMT221 OCX220:OCX221 NTB220:NTB221 NJF220:NJF221 MZJ220:MZJ221 NJF217:NJF218 NTB217:NTB218 OCX217:OCX218 OMT217:OMT218 OWP217:OWP218 PGL217:PGL218 PQH217:PQH218 QAD217:QAD218 QJZ217:QJZ218 QTV217:QTV218 RDR217:RDR218 RNN217:RNN218 RXJ217:RXJ218 SHF217:SHF218 SRB217:SRB218 TAX217:TAX218 TKT217:TKT218 TUP217:TUP218 UEL217:UEL218 UOH217:UOH218 UYD217:UYD218 VHZ217:VHZ218 VRV217:VRV218 WBR217:WBR218 WLN217:WLN218 WVJ217:WVJ218 IX217:IX218 ST217:ST218 ACP217:ACP218 AML217:AML218 AWH217:AWH218 BGD217:BGD218 BPZ217:BPZ218 BZV217:BZV218 CJR217:CJR218 CTN217:CTN218 DDJ217:DDJ218 DNF217:DNF218 DXB217:DXB218 EGX217:EGX218 EQT217:EQT218 FAP217:FAP218 LCD217:LCD218 FKL217:FKL218 FUH217:FUH218 GED217:GED218 GNZ217:GNZ218 GXV217:GXV218 HHR217:HHR218 HRN217:HRN218 IBJ217:IBJ218 ILF217:ILF218 IVB217:IVB218 JEX217:JEX218 JOT217:JOT218 JYP217:JYP218 KIL217:KIL218 KSH217:KSH218 LLZ217:LLZ218 LVV217:LVV218 MFR217:MFR218 MPN217:MPN218 MPN220:MPN221 MPN214:MPN215 MFR214:MFR215 LVV214:LVV215 LLZ214:LLZ215 KSH214:KSH215 KIL214:KIL215 JYP214:JYP215 JOT214:JOT215 JEX214:JEX215 IVB214:IVB215 ILF214:ILF215 IBJ214:IBJ215 HRN214:HRN215 HHR214:HHR215 GXV214:GXV215 GNZ214:GNZ215 GED214:GED215 FUH214:FUH215 FKL214:FKL215 LCD214:LCD215 FAP214:FAP215 EQT214:EQT215 EGX214:EGX215 DXB214:DXB215 DNF214:DNF215 DDJ214:DDJ215 CTN214:CTN215 CJR214:CJR215 BZV214:BZV215 BPZ214:BPZ215 BGD214:BGD215 AWH214:AWH215 AML214:AML215 ACP214:ACP215 ST214:ST215 IX214:IX215 WVJ214:WVJ215 WLN214:WLN215 WBR214:WBR215 VRV214:VRV215 VHZ214:VHZ215 UYD214:UYD215 UOH214:UOH215 UEL214:UEL215 TUP214:TUP215 TKT214:TKT215 TAX214:TAX215 SRB214:SRB215 SHF214:SHF215 RXJ214:RXJ215 RNN214:RNN215 RDR214:RDR215 QTV214:QTV215 QJZ214:QJZ215 QAD214:QAD215 PQH214:PQH215 PGL214:PGL215 OWP214:OWP215 OMT214:OMT215 OCX214:OCX215 NTB214:NTB215 NJF214:NJF215 MZJ214:MZJ215 MZJ217:MZJ218">
@@ -12482,13 +12077,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="508">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1539,6 +1539,78 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8404395802","modelId":"3517801669","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4510014384","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4518600625","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4518600626","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4518600627","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4581414461","dealId":"3606925589","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3606925589","modelId":"4581414461","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5710014944","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4581414461","dealId":"3606925589","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5718601738","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5710014944","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3606925589","modelId":"4581414461","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5710014945","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5718601738","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4581414461","dealId":"3606925589","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3606925589","modelId":"4581414461","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5710014946","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4581414461","dealId":"3606925589","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5718601740","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5718601741","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5718601742","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"5710014946","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3606925589","modelId":"4581414461","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5710014947","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5718601740","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5718601741","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5718601742","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4581414461","dealId":"3606925589","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3606925589","modelId":"4581414461","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5710014948","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4581414461","dealId":"3606925589","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5718601746","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5718601747","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5718601748","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"5710014948","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3606925589","modelId":"4581414461","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5710014949","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5718601746","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5718601747","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5718601748","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1567499205","dealId":"5196687087","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015029","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1567499205","dealId":"5196687087","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4738601897","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"4730015029","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015030","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4738601897","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1567499205","dealId":"5196687087","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015031","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1567499205","dealId":"5196687087","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4738601899","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4738601900","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4738601901","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4730015031","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015032","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601899","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601900","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601901","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1567499205","dealId":"5196687087","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015033","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1567499205","dealId":"5196687087","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4738601905","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4738601906","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4738601907","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4730015033","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015034","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601905","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601906","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601907","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -2778,11 +2850,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
-    <col min="3" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.26953125" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="22.26953125" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -11113,10 +11185,10 @@
       </c>
       <c r="Z214" s="78"/>
       <c r="AU214" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="AV214" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11178,10 +11250,10 @@
       </c>
       <c r="Z215" s="81"/>
       <c r="AU215" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AV215" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11240,10 +11312,10 @@
       </c>
       <c r="Z217" s="78"/>
       <c r="AU217" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="AV217" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="218" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11302,10 +11374,10 @@
       </c>
       <c r="Z218" s="81"/>
       <c r="AU218" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="AV218" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11364,10 +11436,10 @@
       </c>
       <c r="Z220" s="78"/>
       <c r="AU220" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="AV220" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11426,10 +11498,10 @@
       </c>
       <c r="Z221" s="81"/>
       <c r="AU221" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="AV221" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="1:48" x14ac:dyDescent="0.35">
@@ -12077,13 +12149,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="532">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1611,6 +1611,78 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5196687087","modelId":"1567499205","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4730015034","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601905","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601906","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4738601907","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7764580919","dealId":"6898979615","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6898979615","modelId":"7764580919","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2030014396","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7764580919","dealId":"6898979615","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"2038600686","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"2030014396","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6898979615","modelId":"7764580919","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2030014397","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"2038600686","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7764580919","dealId":"6898979615","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6898979615","modelId":"7764580919","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2030014398","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7764580919","dealId":"6898979615","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2038600688","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2038600689","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2038600690","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2030014398","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6898979615","modelId":"7764580919","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2030014399","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2038600688","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2038600689","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2038600690","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7764580919","dealId":"6898979615","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6898979615","modelId":"7764580919","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2030014400","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7764580919","dealId":"6898979615","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2038600694","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2038600695","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2038600696","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2030014400","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6898979615","modelId":"7764580919","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2030014401","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2038600694","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2038600695","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2038600696","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0653502139","dealId":"6612336555","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014131","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0653502139","dealId":"6612336555","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"3008600163","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"3000014131","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014132","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"3008600163","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0653502139","dealId":"6612336555","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014133","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0653502139","dealId":"6612336555","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3008600165","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3008600166","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3008600167","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"3000014133","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014134","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600165","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600166","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600167","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0653502139","dealId":"6612336555","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014135","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0653502139","dealId":"6612336555","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3008600171","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3008600172","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3008600173","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"3000014135","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014136","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600171","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600172","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600173","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -11185,10 +11257,10 @@
       </c>
       <c r="Z214" s="78"/>
       <c r="AU214" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="AV214" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
     </row>
     <row r="215" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11250,10 +11322,10 @@
       </c>
       <c r="Z215" s="81"/>
       <c r="AU215" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="AV215" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
     </row>
     <row r="217" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11312,10 +11384,10 @@
       </c>
       <c r="Z217" s="78"/>
       <c r="AU217" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="AV217" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
     </row>
     <row r="218" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11374,10 +11446,10 @@
       </c>
       <c r="Z218" s="81"/>
       <c r="AU218" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="AV218" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
     <row r="220" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11436,10 +11508,10 @@
       </c>
       <c r="Z220" s="78"/>
       <c r="AU220" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="AV220" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11498,10 +11570,10 @@
       </c>
       <c r="Z221" s="81"/>
       <c r="AU221" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="AV221" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:48" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43784.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="556">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1683,6 +1683,78 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6612336555","modelId":"0653502139","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3000014136","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600171","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600172","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3008600173","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5633306339","dealId":"4103110736","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4103110736","modelId":"5633306339","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1430014322","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5633306339","dealId":"4103110736","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"1438600591","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"1430014322","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4103110736","modelId":"5633306339","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1430014323","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"1438600591","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5633306339","dealId":"4103110736","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4103110736","modelId":"5633306339","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1430014324","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5633306339","dealId":"4103110736","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1438600593","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1438600594","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1438600595","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1430014324","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4103110736","modelId":"5633306339","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1430014325","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1438600593","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1438600594","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1438600595","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5633306339","dealId":"4103110736","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4103110736","modelId":"5633306339","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1430014326","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5633306339","dealId":"4103110736","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1438600599","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1438600600","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1438600601","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1430014326","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4103110736","modelId":"5633306339","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1430014327","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1438600599","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1438600600","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1438600601","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0865777537","dealId":"8537579679","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8537579679","modelId":"0865777537","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1780014614","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0865777537","dealId":"8537579679","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"1788601122","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"1780014614","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8537579679","modelId":"0865777537","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1780014615","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"1788601122","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0865777537","dealId":"8537579679","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8537579679","modelId":"0865777537","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1780014616","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0865777537","dealId":"8537579679","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1788601124","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1788601125","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1788601126","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1780014616","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8537579679","modelId":"0865777537","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1780014617","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1788601124","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1788601125","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1788601126","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0865777537","dealId":"8537579679","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8537579679","modelId":"0865777537","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1780014618","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0865777537","dealId":"8537579679","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1788601130","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1788601131","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1788601132","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1780014618","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8537579679","modelId":"0865777537","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1780014619","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1788601130","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1788601131","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1788601132","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -11257,10 +11329,10 @@
       </c>
       <c r="Z214" s="78"/>
       <c r="AU214" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="AV214" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
     </row>
     <row r="215" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11322,10 +11394,10 @@
       </c>
       <c r="Z215" s="81"/>
       <c r="AU215" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="AV215" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
     <row r="217" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11384,10 +11456,10 @@
       </c>
       <c r="Z217" s="78"/>
       <c r="AU217" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="AV217" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11446,10 +11518,10 @@
       </c>
       <c r="Z218" s="81"/>
       <c r="AU218" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="AV218" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11508,10 +11580,10 @@
       </c>
       <c r="Z220" s="78"/>
       <c r="AU220" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="AV220" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11570,10 +11642,10 @@
       </c>
       <c r="Z221" s="81"/>
       <c r="AU221" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="AV221" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
     </row>
     <row r="223" spans="1:48" x14ac:dyDescent="0.35">
